--- a/Result.xlsx
+++ b/Result.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26381" uniqueCount="1946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26381" uniqueCount="1945">
   <si>
     <t>2017-03-23</t>
   </si>
@@ -4923,9 +4923,6 @@
   </si>
   <si>
     <t>MF8319</t>
-  </si>
-  <si>
-    <t>B5307</t>
   </si>
   <si>
     <t>D</t>
@@ -5902,160 +5899,160 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B1" t="s">
         <v>1894</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1895</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1896</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1897</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>1898</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>1899</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>1900</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>1901</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>1902</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>1903</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>1904</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>1905</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>1906</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>1907</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>1908</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>1909</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>1910</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>1911</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>1912</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>1913</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>1914</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>1915</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>1916</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>1917</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>1918</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>1919</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>1920</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>1921</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>1922</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>1923</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>1924</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>1925</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>1926</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>1927</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>1928</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>1929</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>1930</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>1931</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>1932</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>1933</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>1934</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>1935</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>1936</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>1937</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>1938</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>1939</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>1940</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>1941</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>1942</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>1943</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>1944</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>1945</v>
       </c>
     </row>
     <row r="2">
@@ -7011,7 +7008,7 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="D29" t="s">
         <v>3</v>
@@ -7044,7 +7041,7 @@
         <v>954</v>
       </c>
       <c r="AB29" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="30">
@@ -7458,13 +7455,13 @@
         <v>168</v>
       </c>
       <c r="K41" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="N41" t="s">
         <v>169</v>
       </c>
       <c r="O41" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="V41" t="s">
         <v>9</v>
@@ -7473,7 +7470,7 @@
         <v>658</v>
       </c>
       <c r="AB41" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="42">
@@ -7613,7 +7610,7 @@
         <v>9</v>
       </c>
       <c r="X45" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="46">
@@ -7767,7 +7764,7 @@
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="D50" t="s">
         <v>3</v>
@@ -7800,7 +7797,7 @@
         <v>747</v>
       </c>
       <c r="AB50" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="51">
@@ -8856,13 +8853,13 @@
         <v>312</v>
       </c>
       <c r="K80" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="N80" t="s">
         <v>313</v>
       </c>
       <c r="O80" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="V80" t="s">
         <v>9</v>
@@ -8871,7 +8868,7 @@
         <v>817</v>
       </c>
       <c r="AB80" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="81">
@@ -9256,13 +9253,13 @@
         <v>347</v>
       </c>
       <c r="K91" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="N91" t="s">
         <v>348</v>
       </c>
       <c r="O91" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="V91" t="s">
         <v>9</v>
@@ -9271,7 +9268,7 @@
         <v>662</v>
       </c>
       <c r="AB91" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="92">
@@ -9385,7 +9382,7 @@
         <v>150</v>
       </c>
       <c r="AB94" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="95">
@@ -10050,13 +10047,13 @@
         <v>419</v>
       </c>
       <c r="K113" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="N113" t="s">
         <v>315</v>
       </c>
       <c r="O113" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="V113" t="s">
         <v>9</v>
@@ -10065,7 +10062,7 @@
         <v>176</v>
       </c>
       <c r="AB113" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="114">
@@ -10234,13 +10231,13 @@
         <v>433</v>
       </c>
       <c r="K118" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="N118" t="s">
         <v>361</v>
       </c>
       <c r="O118" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="V118" t="s">
         <v>9</v>
@@ -10249,7 +10246,7 @@
         <v>434</v>
       </c>
       <c r="AB118" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="119">
@@ -10911,7 +10908,7 @@
         <v>492</v>
       </c>
       <c r="K137" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="N137" t="s">
         <v>493</v>
@@ -10926,7 +10923,7 @@
         <v>1129</v>
       </c>
       <c r="AB137" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="138">
@@ -10996,7 +10993,7 @@
         <v>9</v>
       </c>
       <c r="X139" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="140">
@@ -11060,13 +11057,13 @@
         <v>501</v>
       </c>
       <c r="K141" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="N141" t="s">
         <v>502</v>
       </c>
       <c r="O141" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="V141" t="s">
         <v>9</v>
@@ -11075,7 +11072,7 @@
         <v>632</v>
       </c>
       <c r="AB141" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="142">
@@ -11495,13 +11492,13 @@
         <v>530</v>
       </c>
       <c r="K153" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="N153" t="s">
         <v>493</v>
       </c>
       <c r="O153" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="V153" t="s">
         <v>54</v>
@@ -11510,7 +11507,7 @@
         <v>1171</v>
       </c>
       <c r="AB153" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="154">
@@ -11734,7 +11731,7 @@
         <v>1</v>
       </c>
       <c r="C160" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="D160" t="s">
         <v>3</v>
@@ -11767,7 +11764,7 @@
         <v>115</v>
       </c>
       <c r="AB160" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="161">
@@ -12397,13 +12394,13 @@
         <v>604</v>
       </c>
       <c r="K178" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="N178" t="s">
         <v>605</v>
       </c>
       <c r="O178" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="V178" t="s">
         <v>54</v>
@@ -12412,7 +12409,7 @@
         <v>1171</v>
       </c>
       <c r="AB178" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="179">
@@ -12479,13 +12476,13 @@
         <v>539</v>
       </c>
       <c r="K180" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="N180" t="s">
         <v>609</v>
       </c>
       <c r="O180" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="V180" t="s">
         <v>9</v>
@@ -12494,7 +12491,7 @@
         <v>173</v>
       </c>
       <c r="AB180" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="181">
@@ -12680,7 +12677,7 @@
         <v>1</v>
       </c>
       <c r="C186" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="D186" t="s">
         <v>3</v>
@@ -12698,13 +12695,13 @@
         <v>623</v>
       </c>
       <c r="K186" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="N186" t="s">
         <v>624</v>
       </c>
       <c r="O186" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="V186" t="s">
         <v>9</v>
@@ -12713,7 +12710,7 @@
         <v>265</v>
       </c>
       <c r="AB186" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="187">
@@ -12777,13 +12774,13 @@
         <v>626</v>
       </c>
       <c r="K188" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="N188" t="s">
         <v>627</v>
       </c>
       <c r="O188" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="V188" t="s">
         <v>9</v>
@@ -12792,7 +12789,7 @@
         <v>65</v>
       </c>
       <c r="AB188" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="189">
@@ -12836,7 +12833,7 @@
         <v>170</v>
       </c>
       <c r="AB189" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="190">
@@ -12847,7 +12844,7 @@
         <v>1</v>
       </c>
       <c r="C190" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="D190" t="s">
         <v>3</v>
@@ -12880,7 +12877,7 @@
         <v>170</v>
       </c>
       <c r="AB190" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="191">
@@ -13084,13 +13081,13 @@
         <v>647</v>
       </c>
       <c r="K196" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="N196" t="s">
         <v>493</v>
       </c>
       <c r="O196" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="V196" t="s">
         <v>195</v>
@@ -13099,7 +13096,7 @@
         <v>590</v>
       </c>
       <c r="AB196" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="197">
@@ -13303,13 +13300,13 @@
         <v>382</v>
       </c>
       <c r="K202" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="N202" t="s">
         <v>315</v>
       </c>
       <c r="O202" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="V202" t="s">
         <v>9</v>
@@ -13318,7 +13315,7 @@
         <v>632</v>
       </c>
       <c r="AB202" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="203">
@@ -13525,13 +13522,13 @@
         <v>677</v>
       </c>
       <c r="K208" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="N208" t="s">
         <v>678</v>
       </c>
       <c r="O208" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="V208" t="s">
         <v>9</v>
@@ -13540,7 +13537,7 @@
         <v>534</v>
       </c>
       <c r="AB208" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="209">
@@ -13785,13 +13782,13 @@
         <v>331</v>
       </c>
       <c r="K215" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="N215" t="s">
         <v>373</v>
       </c>
       <c r="O215" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="V215" t="s">
         <v>9</v>
@@ -13800,7 +13797,7 @@
         <v>165</v>
       </c>
       <c r="AB215" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="216">
@@ -13934,13 +13931,13 @@
         <v>702</v>
       </c>
       <c r="K219" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="N219" t="s">
         <v>387</v>
       </c>
       <c r="O219" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="V219" t="s">
         <v>9</v>
@@ -13949,7 +13946,7 @@
         <v>165</v>
       </c>
       <c r="AB219" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="220">
@@ -14048,13 +14045,13 @@
         <v>705</v>
       </c>
       <c r="K222" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="N222" t="s">
         <v>706</v>
       </c>
       <c r="O222" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="V222" t="s">
         <v>9</v>
@@ -14063,7 +14060,7 @@
         <v>409</v>
       </c>
       <c r="AB222" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="223">
@@ -14098,7 +14095,7 @@
         <v>9</v>
       </c>
       <c r="X223" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="224">
@@ -14944,13 +14941,13 @@
         <v>605</v>
       </c>
       <c r="K247" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="N247" t="s">
         <v>753</v>
       </c>
       <c r="O247" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="V247" t="s">
         <v>9</v>
@@ -14959,7 +14956,7 @@
         <v>462</v>
       </c>
       <c r="AB247" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="248">
@@ -15321,7 +15318,7 @@
         <v>1023</v>
       </c>
       <c r="AB257" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="258">
@@ -16310,13 +16307,13 @@
         <v>199</v>
       </c>
       <c r="K285" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="N285" t="s">
         <v>334</v>
       </c>
       <c r="O285" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="V285" t="s">
         <v>9</v>
@@ -16325,7 +16322,7 @@
         <v>342</v>
       </c>
       <c r="AB285" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="286">
@@ -16669,13 +16666,13 @@
         <v>830</v>
       </c>
       <c r="K295" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="N295" t="s">
         <v>831</v>
       </c>
       <c r="O295" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="V295" t="s">
         <v>9</v>
@@ -16684,7 +16681,7 @@
         <v>458</v>
       </c>
       <c r="AB295" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="296">
@@ -16859,7 +16856,7 @@
         <v>842</v>
       </c>
       <c r="O300" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="V300" t="s">
         <v>9</v>
@@ -16868,7 +16865,7 @@
         <v>119</v>
       </c>
       <c r="AB300" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="301">
@@ -17002,13 +16999,13 @@
         <v>848</v>
       </c>
       <c r="K304" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="N304" t="s">
         <v>849</v>
       </c>
       <c r="O304" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="V304" t="s">
         <v>9</v>
@@ -17017,7 +17014,7 @@
         <v>628</v>
       </c>
       <c r="AB304" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="305">
@@ -17501,13 +17498,13 @@
         <v>330</v>
       </c>
       <c r="K318" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="N318" t="s">
         <v>360</v>
       </c>
       <c r="O318" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="V318" t="s">
         <v>9</v>
@@ -17516,7 +17513,7 @@
         <v>49</v>
       </c>
       <c r="AB318" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="319">
@@ -18000,13 +17997,13 @@
         <v>900</v>
       </c>
       <c r="K332" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="N332" t="s">
         <v>901</v>
       </c>
       <c r="O332" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="V332" t="s">
         <v>9</v>
@@ -18015,7 +18012,7 @@
         <v>458</v>
       </c>
       <c r="AB332" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="333">
@@ -19223,7 +19220,7 @@
         <v>1023</v>
       </c>
       <c r="AB366" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="367">
@@ -19637,13 +19634,13 @@
         <v>516</v>
       </c>
       <c r="K378" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="N378" t="s">
         <v>977</v>
       </c>
       <c r="O378" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="V378" t="s">
         <v>9</v>
@@ -19652,7 +19649,7 @@
         <v>843</v>
       </c>
       <c r="AB378" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="379">
@@ -19836,7 +19833,7 @@
         <v>98</v>
       </c>
       <c r="AB383" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="384">
@@ -20180,13 +20177,13 @@
         <v>807</v>
       </c>
       <c r="K393" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="N393" t="s">
         <v>199</v>
       </c>
       <c r="O393" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="V393" t="s">
         <v>9</v>
@@ -20195,7 +20192,7 @@
         <v>395</v>
       </c>
       <c r="AB393" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="394">
@@ -20469,13 +20466,13 @@
         <v>238</v>
       </c>
       <c r="K401" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="N401" t="s">
         <v>1008</v>
       </c>
       <c r="O401" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="V401" t="s">
         <v>9</v>
@@ -20484,7 +20481,7 @@
         <v>10</v>
       </c>
       <c r="AB401" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="402">
@@ -20554,7 +20551,7 @@
         <v>1011</v>
       </c>
       <c r="O403" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="V403" t="s">
         <v>9</v>
@@ -20563,7 +20560,7 @@
         <v>113</v>
       </c>
       <c r="AB403" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="404">
@@ -21155,13 +21152,13 @@
         <v>314</v>
       </c>
       <c r="K420" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="N420" t="s">
         <v>530</v>
       </c>
       <c r="O420" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="V420" t="s">
         <v>9</v>
@@ -21170,7 +21167,7 @@
         <v>353</v>
       </c>
       <c r="AB420" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="421">
@@ -21234,13 +21231,13 @@
         <v>744</v>
       </c>
       <c r="K422" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="N422" t="s">
         <v>419</v>
       </c>
       <c r="O422" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="V422" t="s">
         <v>9</v>
@@ -21249,7 +21246,7 @@
         <v>60</v>
       </c>
       <c r="AB422" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="423">
@@ -21497,7 +21494,7 @@
         <v>9</v>
       </c>
       <c r="X429" t="s">
-        <v>1637</v>
+        <v>326</v>
       </c>
     </row>
     <row r="430">
@@ -21634,13 +21631,13 @@
         <v>516</v>
       </c>
       <c r="K433" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="N433" t="s">
         <v>501</v>
       </c>
       <c r="O433" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="V433" t="s">
         <v>9</v>
@@ -21649,7 +21646,7 @@
         <v>224</v>
       </c>
       <c r="AB433" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="434">
@@ -21678,13 +21675,13 @@
         <v>504</v>
       </c>
       <c r="K434" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="N434" t="s">
         <v>1047</v>
       </c>
       <c r="O434" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="V434" t="s">
         <v>9</v>
@@ -21693,7 +21690,7 @@
         <v>21</v>
       </c>
       <c r="AB434" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="435">
@@ -22127,7 +22124,7 @@
         <v>1</v>
       </c>
       <c r="C447" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="D447" t="s">
         <v>3</v>
@@ -22145,13 +22142,13 @@
         <v>769</v>
       </c>
       <c r="K447" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="N447" t="s">
         <v>1065</v>
       </c>
       <c r="O447" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="V447" t="s">
         <v>9</v>
@@ -22160,7 +22157,7 @@
         <v>322</v>
       </c>
       <c r="AB447" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="448">
@@ -23231,7 +23228,7 @@
         <v>180</v>
       </c>
       <c r="AB477" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="478">
@@ -23260,13 +23257,13 @@
         <v>1097</v>
       </c>
       <c r="K478" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="N478" t="s">
         <v>1099</v>
       </c>
       <c r="O478" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="V478" t="s">
         <v>9</v>
@@ -23275,7 +23272,7 @@
         <v>255</v>
       </c>
       <c r="AB478" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="479">
@@ -23444,13 +23441,13 @@
         <v>1098</v>
       </c>
       <c r="K483" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="N483" t="s">
         <v>315</v>
       </c>
       <c r="O483" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="V483" t="s">
         <v>9</v>
@@ -23459,7 +23456,7 @@
         <v>21</v>
       </c>
       <c r="AB483" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="484">
@@ -23564,7 +23561,7 @@
         <v>1108</v>
       </c>
       <c r="O486" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="V486" t="s">
         <v>15</v>
@@ -23573,7 +23570,7 @@
         <v>16</v>
       </c>
       <c r="AB486" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="487">
@@ -23689,7 +23686,7 @@
         <v>1</v>
       </c>
       <c r="C490" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="D490" t="s">
         <v>3</v>
@@ -23722,7 +23719,7 @@
         <v>370</v>
       </c>
       <c r="AB490" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="491">
@@ -23824,13 +23821,13 @@
         <v>830</v>
       </c>
       <c r="K493" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="N493" t="s">
         <v>169</v>
       </c>
       <c r="O493" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="V493" t="s">
         <v>9</v>
@@ -23839,7 +23836,7 @@
         <v>446</v>
       </c>
       <c r="AB493" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="494">
@@ -23903,13 +23900,13 @@
         <v>1116</v>
       </c>
       <c r="K495" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="N495" t="s">
         <v>677</v>
       </c>
       <c r="O495" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="V495" t="s">
         <v>9</v>
@@ -23918,7 +23915,7 @@
         <v>799</v>
       </c>
       <c r="AB495" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="496">
@@ -24367,13 +24364,13 @@
         <v>1128</v>
       </c>
       <c r="K508" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="N508" t="s">
         <v>611</v>
       </c>
       <c r="O508" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="V508" t="s">
         <v>9</v>
@@ -24382,7 +24379,7 @@
         <v>490</v>
       </c>
       <c r="AB508" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="509">
@@ -24627,7 +24624,7 @@
         <v>1133</v>
       </c>
       <c r="O515" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="V515" t="s">
         <v>9</v>
@@ -24636,7 +24633,7 @@
         <v>123</v>
       </c>
       <c r="AB515" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="516">
@@ -25249,7 +25246,7 @@
         <v>98</v>
       </c>
       <c r="AB532" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="533">
@@ -25558,7 +25555,7 @@
         <v>388</v>
       </c>
       <c r="K541" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="N541" t="s">
         <v>1161</v>
@@ -25573,7 +25570,7 @@
         <v>607</v>
       </c>
       <c r="AB541" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="542">
@@ -26104,7 +26101,7 @@
         <v>1176</v>
       </c>
       <c r="O556" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="V556" t="s">
         <v>54</v>
@@ -26113,7 +26110,7 @@
         <v>55</v>
       </c>
       <c r="AB556" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="557">
@@ -26247,13 +26244,13 @@
         <v>1163</v>
       </c>
       <c r="K560" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="N560" t="s">
         <v>1167</v>
       </c>
       <c r="O560" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="V560" t="s">
         <v>9</v>
@@ -26262,7 +26259,7 @@
         <v>596</v>
       </c>
       <c r="AB560" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="561">
@@ -26326,13 +26323,13 @@
         <v>651</v>
       </c>
       <c r="K562" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="N562" t="s">
         <v>597</v>
       </c>
       <c r="O562" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="V562" t="s">
         <v>9</v>
@@ -26341,7 +26338,7 @@
         <v>602</v>
       </c>
       <c r="AB562" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="563">
@@ -26440,13 +26437,13 @@
         <v>1185</v>
       </c>
       <c r="K565" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="N565" t="s">
         <v>237</v>
       </c>
       <c r="O565" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="V565" t="s">
         <v>15</v>
@@ -26455,7 +26452,7 @@
         <v>173</v>
       </c>
       <c r="AB565" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="566">
@@ -26639,7 +26636,7 @@
         <v>40</v>
       </c>
       <c r="AB570" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="571">
@@ -27987,7 +27984,7 @@
         <v>328</v>
       </c>
       <c r="AB608" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="609">
@@ -28606,7 +28603,7 @@
         <v>55</v>
       </c>
       <c r="AB625" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="626">
@@ -28705,13 +28702,13 @@
         <v>1105</v>
       </c>
       <c r="K628" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="N628" t="s">
         <v>1055</v>
       </c>
       <c r="O628" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="V628" t="s">
         <v>15</v>
@@ -28720,7 +28717,7 @@
         <v>173</v>
       </c>
       <c r="AB628" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="629">
@@ -28802,7 +28799,7 @@
         <v>119</v>
       </c>
       <c r="AB630" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="631">
@@ -29488,7 +29485,7 @@
         <v>196</v>
       </c>
       <c r="AB649" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="650">
@@ -29622,13 +29619,13 @@
         <v>1249</v>
       </c>
       <c r="K653" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="N653" t="s">
         <v>1250</v>
       </c>
       <c r="O653" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="V653" t="s">
         <v>9</v>
@@ -29637,7 +29634,7 @@
         <v>540</v>
       </c>
       <c r="AB653" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="654">
@@ -29771,13 +29768,13 @@
         <v>207</v>
       </c>
       <c r="K657" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="N657" t="s">
         <v>1255</v>
       </c>
       <c r="O657" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="V657" t="s">
         <v>9</v>
@@ -29786,7 +29783,7 @@
         <v>640</v>
       </c>
       <c r="AB657" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="658">
@@ -30209,7 +30206,7 @@
         <v>876</v>
       </c>
       <c r="O669" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="V669" t="s">
         <v>9</v>
@@ -30218,7 +30215,7 @@
         <v>496</v>
       </c>
       <c r="AB669" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="670">
@@ -31107,7 +31104,7 @@
         <v>1</v>
       </c>
       <c r="C695" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="D695" t="s">
         <v>3</v>
@@ -31125,13 +31122,13 @@
         <v>1276</v>
       </c>
       <c r="K695" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="N695" t="s">
         <v>1277</v>
       </c>
       <c r="O695" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="V695" t="s">
         <v>9</v>
@@ -31140,7 +31137,7 @@
         <v>255</v>
       </c>
       <c r="AB695" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="696">
@@ -31414,13 +31411,13 @@
         <v>1283</v>
       </c>
       <c r="K703" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="N703" t="s">
         <v>924</v>
       </c>
       <c r="O703" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="V703" t="s">
         <v>9</v>
@@ -31429,7 +31426,7 @@
         <v>490</v>
       </c>
       <c r="AB703" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="704">
@@ -31598,13 +31595,13 @@
         <v>348</v>
       </c>
       <c r="K708" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="N708" t="s">
         <v>609</v>
       </c>
       <c r="O708" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="V708" t="s">
         <v>9</v>
@@ -31613,7 +31610,7 @@
         <v>471</v>
       </c>
       <c r="AB708" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="709">
@@ -31820,13 +31817,13 @@
         <v>497</v>
       </c>
       <c r="K714" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="N714" t="s">
         <v>1289</v>
       </c>
       <c r="O714" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="V714" t="s">
         <v>9</v>
@@ -31835,7 +31832,7 @@
         <v>224</v>
       </c>
       <c r="AB714" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="715">
@@ -31899,13 +31896,13 @@
         <v>382</v>
       </c>
       <c r="K716" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="N716" t="s">
         <v>1291</v>
       </c>
       <c r="O716" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="V716" t="s">
         <v>9</v>
@@ -31914,7 +31911,7 @@
         <v>342</v>
       </c>
       <c r="AB716" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="717">
@@ -32296,13 +32293,13 @@
         <v>1298</v>
       </c>
       <c r="K727" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="N727" t="s">
         <v>1299</v>
       </c>
       <c r="O727" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="V727" t="s">
         <v>9</v>
@@ -32311,7 +32308,7 @@
         <v>514</v>
       </c>
       <c r="AB727" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="728">
@@ -32340,13 +32337,13 @@
         <v>1297</v>
       </c>
       <c r="K728" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="N728" t="s">
         <v>1301</v>
       </c>
       <c r="O728" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="V728" t="s">
         <v>9</v>
@@ -32355,7 +32352,7 @@
         <v>514</v>
       </c>
       <c r="AB728" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="729">
@@ -32787,7 +32784,7 @@
         <v>332</v>
       </c>
       <c r="AB740" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="741">
@@ -32901,7 +32898,7 @@
         <v>428</v>
       </c>
       <c r="AB743" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="744">
@@ -33076,7 +33073,7 @@
         <v>539</v>
       </c>
       <c r="O748" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="V748" t="s">
         <v>9</v>
@@ -33085,7 +33082,7 @@
         <v>109</v>
       </c>
       <c r="AB748" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="749">
@@ -33149,13 +33146,13 @@
         <v>361</v>
       </c>
       <c r="K750" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="N750" t="s">
         <v>1176</v>
       </c>
       <c r="O750" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="V750" t="s">
         <v>9</v>
@@ -33164,7 +33161,7 @@
         <v>817</v>
       </c>
       <c r="AB750" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="751">
@@ -33686,13 +33683,13 @@
         <v>627</v>
       </c>
       <c r="K765" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="N765" t="s">
         <v>361</v>
       </c>
       <c r="O765" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="V765" t="s">
         <v>9</v>
@@ -33701,7 +33698,7 @@
         <v>596</v>
       </c>
       <c r="AB765" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="766">
@@ -33885,7 +33882,7 @@
         <v>170</v>
       </c>
       <c r="AB770" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="771">
@@ -33914,13 +33911,13 @@
         <v>1313</v>
       </c>
       <c r="K771" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="N771" t="s">
         <v>335</v>
       </c>
       <c r="O771" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="V771" t="s">
         <v>9</v>
@@ -33929,7 +33926,7 @@
         <v>306</v>
       </c>
       <c r="AB771" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="772">
@@ -34288,7 +34285,7 @@
         <v>45</v>
       </c>
       <c r="AB781" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="782">
@@ -34895,7 +34892,7 @@
         <v>421</v>
       </c>
       <c r="O798" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="V798" t="s">
         <v>203</v>
@@ -34904,7 +34901,7 @@
         <v>747</v>
       </c>
       <c r="AB798" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="799">
@@ -35126,7 +35123,7 @@
         <v>270</v>
       </c>
       <c r="AB804" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="805">
@@ -36255,13 +36252,13 @@
         <v>1068</v>
       </c>
       <c r="K836" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="N836" t="s">
         <v>1142</v>
       </c>
       <c r="O836" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="V836" t="s">
         <v>195</v>
@@ -36270,7 +36267,7 @@
         <v>26</v>
       </c>
       <c r="AB836" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="837">
@@ -36404,13 +36401,13 @@
         <v>238</v>
       </c>
       <c r="K840" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="N840" t="s">
         <v>1019</v>
       </c>
       <c r="O840" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="V840" t="s">
         <v>9</v>
@@ -36419,7 +36416,7 @@
         <v>628</v>
       </c>
       <c r="AB840" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="841">
@@ -36714,7 +36711,7 @@
         <v>87</v>
       </c>
       <c r="AB848" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="849">
@@ -36988,13 +36985,13 @@
         <v>1106</v>
       </c>
       <c r="K856" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="N856" t="s">
         <v>330</v>
       </c>
       <c r="O856" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="V856" t="s">
         <v>54</v>
@@ -37003,7 +37000,7 @@
         <v>1171</v>
       </c>
       <c r="AB856" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="857">
@@ -37047,7 +37044,7 @@
         <v>481</v>
       </c>
       <c r="AB857" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="858">
@@ -37234,7 +37231,7 @@
         <v>750</v>
       </c>
       <c r="AB862" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="863">
@@ -37368,13 +37365,13 @@
         <v>1047</v>
       </c>
       <c r="K866" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="N866" t="s">
         <v>1128</v>
       </c>
       <c r="O866" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="V866" t="s">
         <v>9</v>
@@ -37383,7 +37380,7 @@
         <v>224</v>
       </c>
       <c r="AB866" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="867">
@@ -37663,13 +37660,13 @@
         <v>1161</v>
       </c>
       <c r="K874" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="N874" t="s">
         <v>1289</v>
       </c>
       <c r="O874" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="V874" t="s">
         <v>9</v>
@@ -37678,7 +37675,7 @@
         <v>658</v>
       </c>
       <c r="AB874" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="875">
@@ -37759,7 +37756,7 @@
         <v>1</v>
       </c>
       <c r="C877" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="D877" t="s">
         <v>3</v>
@@ -37792,7 +37789,7 @@
         <v>453</v>
       </c>
       <c r="AB877" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="878">
@@ -37827,7 +37824,7 @@
         <v>9</v>
       </c>
       <c r="X878" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="879">
@@ -38562,13 +38559,13 @@
         <v>208</v>
       </c>
       <c r="K899" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="N899" t="s">
         <v>735</v>
       </c>
       <c r="O899" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="V899" t="s">
         <v>9</v>
@@ -38577,7 +38574,7 @@
         <v>69</v>
       </c>
       <c r="AB899" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="900">
@@ -38746,13 +38743,13 @@
         <v>651</v>
       </c>
       <c r="K904" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="N904" t="s">
         <v>597</v>
       </c>
       <c r="O904" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="V904" t="s">
         <v>15</v>
@@ -38761,7 +38758,7 @@
         <v>640</v>
       </c>
       <c r="AB904" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="905">
@@ -39456,7 +39453,7 @@
         <v>891</v>
       </c>
       <c r="AB923" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="924">
@@ -39485,13 +39482,13 @@
         <v>886</v>
       </c>
       <c r="K924" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="N924" t="s">
         <v>842</v>
       </c>
       <c r="O924" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="V924" t="s">
         <v>9</v>
@@ -39500,7 +39497,7 @@
         <v>607</v>
       </c>
       <c r="AB924" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="925">
@@ -39599,13 +39596,13 @@
         <v>1397</v>
       </c>
       <c r="K927" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="N927" t="s">
         <v>314</v>
       </c>
       <c r="O927" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="V927" t="s">
         <v>9</v>
@@ -39614,7 +39611,7 @@
         <v>462</v>
       </c>
       <c r="AB927" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="928">
@@ -40215,7 +40212,7 @@
         <v>388</v>
       </c>
       <c r="O944" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="V944" t="s">
         <v>9</v>
@@ -40224,7 +40221,7 @@
         <v>328</v>
       </c>
       <c r="AB944" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="945">
@@ -42024,13 +42021,13 @@
         <v>1263</v>
       </c>
       <c r="K995" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="N995" t="s">
         <v>356</v>
       </c>
       <c r="O995" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="V995" t="s">
         <v>9</v>
@@ -42039,7 +42036,7 @@
         <v>409</v>
       </c>
       <c r="AB995" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="996">
@@ -42742,13 +42739,13 @@
         <v>1432</v>
       </c>
       <c r="K1015" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="N1015" t="s">
         <v>902</v>
       </c>
       <c r="O1015" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="V1015" t="s">
         <v>9</v>
@@ -42757,7 +42754,7 @@
         <v>805</v>
       </c>
       <c r="AB1015" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1016">
@@ -42821,13 +42818,13 @@
         <v>604</v>
       </c>
       <c r="K1017" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="N1017" t="s">
         <v>849</v>
       </c>
       <c r="O1017" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="V1017" t="s">
         <v>9</v>
@@ -42836,7 +42833,7 @@
         <v>132</v>
       </c>
       <c r="AB1017" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1018">
@@ -43186,13 +43183,13 @@
         <v>1372</v>
       </c>
       <c r="K1027" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="N1027" t="s">
         <v>538</v>
       </c>
       <c r="O1027" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="V1027" t="s">
         <v>9</v>
@@ -43201,7 +43198,7 @@
         <v>540</v>
       </c>
       <c r="AB1027" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1028">
@@ -43265,13 +43262,13 @@
         <v>604</v>
       </c>
       <c r="K1029" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="N1029" t="s">
         <v>1305</v>
       </c>
       <c r="O1029" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="V1029" t="s">
         <v>9</v>
@@ -43280,7 +43277,7 @@
         <v>688</v>
       </c>
       <c r="AB1029" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1030">
@@ -43697,13 +43694,13 @@
         <v>744</v>
       </c>
       <c r="K1041" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="N1041" t="s">
         <v>651</v>
       </c>
       <c r="O1041" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="V1041" t="s">
         <v>9</v>
@@ -43712,7 +43709,7 @@
         <v>224</v>
       </c>
       <c r="AB1041" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1042">
@@ -43849,13 +43846,13 @@
         <v>807</v>
       </c>
       <c r="K1045" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="N1045" t="s">
         <v>365</v>
       </c>
       <c r="O1045" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="V1045" t="s">
         <v>9</v>
@@ -43864,7 +43861,7 @@
         <v>596</v>
       </c>
       <c r="AB1045" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1046">
@@ -43998,13 +43995,13 @@
         <v>1176</v>
       </c>
       <c r="K1049" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="N1049" t="s">
         <v>1323</v>
       </c>
       <c r="O1049" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="V1049" t="s">
         <v>9</v>
@@ -44013,7 +44010,7 @@
         <v>523</v>
       </c>
       <c r="AB1049" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1050">
@@ -44626,7 +44623,7 @@
         <v>561</v>
       </c>
       <c r="AB1066" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1067">
@@ -44707,7 +44704,7 @@
         <v>1</v>
       </c>
       <c r="C1069" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="D1069" t="s">
         <v>3</v>
@@ -44740,7 +44737,7 @@
         <v>590</v>
       </c>
       <c r="AB1069" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1070">
@@ -45842,7 +45839,7 @@
         <v>1</v>
       </c>
       <c r="C1101" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="D1101" t="s">
         <v>3</v>
@@ -45875,7 +45872,7 @@
         <v>180</v>
       </c>
       <c r="AB1101" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1102">
@@ -45939,13 +45936,13 @@
         <v>1212</v>
       </c>
       <c r="K1103" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="N1103" t="s">
         <v>1435</v>
       </c>
       <c r="O1103" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="V1103" t="s">
         <v>9</v>
@@ -45954,7 +45951,7 @@
         <v>640</v>
       </c>
       <c r="AB1103" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1104">
@@ -46141,7 +46138,7 @@
         <v>428</v>
       </c>
       <c r="AB1108" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1109">
@@ -46450,13 +46447,13 @@
         <v>314</v>
       </c>
       <c r="K1117" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="N1117" t="s">
         <v>315</v>
       </c>
       <c r="O1117" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="V1117" t="s">
         <v>9</v>
@@ -46465,7 +46462,7 @@
         <v>434</v>
       </c>
       <c r="AB1117" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1118">
@@ -46509,7 +46506,7 @@
         <v>288</v>
       </c>
       <c r="AB1118" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1119">
@@ -47051,7 +47048,7 @@
         <v>1</v>
       </c>
       <c r="C1134" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="D1134" t="s">
         <v>3</v>
@@ -47069,13 +47066,13 @@
         <v>586</v>
       </c>
       <c r="K1134" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="N1134" t="s">
         <v>772</v>
       </c>
       <c r="O1134" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="V1134" t="s">
         <v>9</v>
@@ -47084,7 +47081,7 @@
         <v>658</v>
       </c>
       <c r="AB1134" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1135">
@@ -47378,7 +47375,7 @@
         <v>1</v>
       </c>
       <c r="C1143" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="D1143" t="s">
         <v>3</v>
@@ -47396,13 +47393,13 @@
         <v>122</v>
       </c>
       <c r="K1143" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="N1143" t="s">
         <v>1243</v>
       </c>
       <c r="O1143" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="V1143" t="s">
         <v>9</v>
@@ -47411,7 +47408,7 @@
         <v>395</v>
       </c>
       <c r="AB1143" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1144">
@@ -48768,7 +48765,7 @@
         <v>607</v>
       </c>
       <c r="AB1181" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1182">
@@ -49748,13 +49745,13 @@
         <v>1490</v>
       </c>
       <c r="K1209" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="N1209" t="s">
         <v>1279</v>
       </c>
       <c r="O1209" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="V1209" t="s">
         <v>9</v>
@@ -49763,7 +49760,7 @@
         <v>409</v>
       </c>
       <c r="AB1209" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1210">
@@ -50338,7 +50335,7 @@
         <v>242</v>
       </c>
       <c r="AB1225" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1226">
@@ -50828,13 +50825,13 @@
         <v>1492</v>
       </c>
       <c r="K1239" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="N1239" t="s">
         <v>518</v>
       </c>
       <c r="O1239" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="V1239" t="s">
         <v>9</v>
@@ -50843,7 +50840,7 @@
         <v>316</v>
       </c>
       <c r="AB1239" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1240">
@@ -50960,7 +50957,7 @@
         <v>288</v>
       </c>
       <c r="AB1242" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1243">
@@ -50995,7 +50992,7 @@
         <v>1460</v>
       </c>
       <c r="O1243" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="V1243" t="s">
         <v>203</v>
@@ -51004,7 +51001,7 @@
         <v>424</v>
       </c>
       <c r="AB1243" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1244">
@@ -51048,7 +51045,7 @@
         <v>566</v>
       </c>
       <c r="AB1244" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1245">
@@ -51500,7 +51497,7 @@
         <v>1234</v>
       </c>
       <c r="K1257" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="N1257" t="s">
         <v>373</v>
@@ -51515,7 +51512,7 @@
         <v>21</v>
       </c>
       <c r="AB1257" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1258">
@@ -52127,7 +52124,7 @@
         <v>1</v>
       </c>
       <c r="C1275" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="D1275" t="s">
         <v>3</v>
@@ -52145,13 +52142,13 @@
         <v>623</v>
       </c>
       <c r="K1275" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="N1275" t="s">
         <v>1517</v>
       </c>
       <c r="O1275" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="V1275" t="s">
         <v>9</v>
@@ -52160,7 +52157,7 @@
         <v>446</v>
       </c>
       <c r="AB1275" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1276">
@@ -52626,7 +52623,7 @@
         <v>1</v>
       </c>
       <c r="C1289" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="D1289" t="s">
         <v>3</v>
@@ -52644,13 +52641,13 @@
         <v>623</v>
       </c>
       <c r="K1289" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="N1289" t="s">
         <v>1238</v>
       </c>
       <c r="O1289" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="V1289" t="s">
         <v>9</v>
@@ -52659,7 +52656,7 @@
         <v>16</v>
       </c>
       <c r="AB1289" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1290">
@@ -52831,13 +52828,13 @@
         <v>505</v>
       </c>
       <c r="K1294" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="N1294" t="s">
         <v>530</v>
       </c>
       <c r="O1294" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="V1294" t="s">
         <v>195</v>
@@ -52846,7 +52843,7 @@
         <v>414</v>
       </c>
       <c r="AB1294" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1295">
@@ -53103,7 +53100,7 @@
         <v>72</v>
       </c>
       <c r="AB1301" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1302">
@@ -53342,13 +53339,13 @@
         <v>1530</v>
       </c>
       <c r="K1308" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="N1308" t="s">
         <v>1297</v>
       </c>
       <c r="O1308" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="V1308" t="s">
         <v>9</v>
@@ -53357,7 +53354,7 @@
         <v>590</v>
       </c>
       <c r="AB1308" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1309">
@@ -54016,7 +54013,7 @@
         <v>1</v>
       </c>
       <c r="C1327" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="D1327" t="s">
         <v>3</v>
@@ -54049,7 +54046,7 @@
         <v>328</v>
       </c>
       <c r="AB1327" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1328">
@@ -54536,13 +54533,13 @@
         <v>1006</v>
       </c>
       <c r="K1341" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="N1341" t="s">
         <v>388</v>
       </c>
       <c r="O1341" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="V1341" t="s">
         <v>9</v>
@@ -54551,7 +54548,7 @@
         <v>1258</v>
       </c>
       <c r="AB1341" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1342">
@@ -54597,7 +54594,7 @@
         <v>1</v>
       </c>
       <c r="C1343" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="D1343" t="s">
         <v>3</v>
@@ -54615,13 +54612,13 @@
         <v>1436</v>
       </c>
       <c r="K1343" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="N1343" t="s">
         <v>1238</v>
       </c>
       <c r="O1343" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="V1343" t="s">
         <v>9</v>
@@ -54630,7 +54627,7 @@
         <v>874</v>
       </c>
       <c r="AB1343" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1344">
@@ -55088,7 +55085,7 @@
         <v>1056</v>
       </c>
       <c r="K1356" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="N1356" t="s">
         <v>1535</v>
@@ -55103,7 +55100,7 @@
         <v>954</v>
       </c>
       <c r="AB1356" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1357">
@@ -55485,13 +55482,13 @@
         <v>762</v>
       </c>
       <c r="K1367" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="N1367" t="s">
         <v>1133</v>
       </c>
       <c r="O1367" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="V1367" t="s">
         <v>9</v>
@@ -55500,7 +55497,7 @@
         <v>490</v>
       </c>
       <c r="AB1367" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1368">
@@ -55649,7 +55646,7 @@
         <v>411</v>
       </c>
       <c r="AB1371" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1372">
@@ -55713,13 +55710,13 @@
         <v>1301</v>
       </c>
       <c r="K1373" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="N1373" t="s">
         <v>903</v>
       </c>
       <c r="O1373" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="V1373" t="s">
         <v>9</v>
@@ -55728,7 +55725,7 @@
         <v>10</v>
       </c>
       <c r="AB1373" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1374">
@@ -55915,7 +55912,7 @@
         <v>196</v>
       </c>
       <c r="AB1378" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1379">
@@ -55944,13 +55941,13 @@
         <v>1077</v>
       </c>
       <c r="K1379" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="N1379" t="s">
         <v>1021</v>
       </c>
       <c r="O1379" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="V1379" t="s">
         <v>9</v>
@@ -55959,7 +55956,7 @@
         <v>132</v>
       </c>
       <c r="AB1379" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1380">
@@ -56391,7 +56388,7 @@
         <v>332</v>
       </c>
       <c r="AB1391" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1392">
@@ -56972,7 +56969,7 @@
         <v>87</v>
       </c>
       <c r="AB1407" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1408">
@@ -57532,13 +57529,13 @@
         <v>1322</v>
       </c>
       <c r="K1423" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="N1423" t="s">
         <v>886</v>
       </c>
       <c r="O1423" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="V1423" t="s">
         <v>9</v>
@@ -57547,7 +57544,7 @@
         <v>132</v>
       </c>
       <c r="AB1423" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1424">
@@ -57681,13 +57678,13 @@
         <v>382</v>
       </c>
       <c r="K1427" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="N1427" t="s">
         <v>182</v>
       </c>
       <c r="O1427" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="V1427" t="s">
         <v>9</v>
@@ -57696,7 +57693,7 @@
         <v>843</v>
       </c>
       <c r="AB1427" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1428">
@@ -57766,7 +57763,7 @@
         <v>9</v>
       </c>
       <c r="X1429" t="s">
-        <v>1637</v>
+        <v>326</v>
       </c>
     </row>
     <row r="1430">
@@ -57868,13 +57865,13 @@
         <v>1386</v>
       </c>
       <c r="K1432" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="N1432" t="s">
         <v>1105</v>
       </c>
       <c r="O1432" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="V1432" t="s">
         <v>9</v>
@@ -57883,7 +57880,7 @@
         <v>10</v>
       </c>
       <c r="AB1432" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1433">
@@ -58230,13 +58227,13 @@
         <v>848</v>
       </c>
       <c r="K1442" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="N1442" t="s">
         <v>433</v>
       </c>
       <c r="O1442" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="V1442" t="s">
         <v>9</v>
@@ -58245,7 +58242,7 @@
         <v>1258</v>
       </c>
       <c r="AB1442" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1443">
@@ -58487,13 +58484,13 @@
         <v>1105</v>
       </c>
       <c r="K1449" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="N1449" t="s">
         <v>977</v>
       </c>
       <c r="O1449" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="V1449" t="s">
         <v>9</v>
@@ -58502,7 +58499,7 @@
         <v>540</v>
       </c>
       <c r="AB1449" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1450">
@@ -58706,13 +58703,13 @@
         <v>1435</v>
       </c>
       <c r="K1455" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="N1455" t="s">
         <v>848</v>
       </c>
       <c r="O1455" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="V1455" t="s">
         <v>9</v>
@@ -58721,7 +58718,7 @@
         <v>523</v>
       </c>
       <c r="AB1455" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1456">
@@ -59771,13 +59768,13 @@
         <v>669</v>
       </c>
       <c r="K1485" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="N1485" t="s">
         <v>513</v>
       </c>
       <c r="O1485" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="V1485" t="s">
         <v>9</v>
@@ -59786,7 +59783,7 @@
         <v>590</v>
       </c>
       <c r="AB1485" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1486">
@@ -60209,13 +60206,13 @@
         <v>1263</v>
       </c>
       <c r="K1497" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="N1497" t="s">
         <v>497</v>
       </c>
       <c r="O1497" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="V1497" t="s">
         <v>9</v>
@@ -60224,7 +60221,7 @@
         <v>395</v>
       </c>
       <c r="AB1497" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1498">
@@ -60501,13 +60498,13 @@
         <v>875</v>
       </c>
       <c r="K1505" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="N1505" t="s">
         <v>1555</v>
       </c>
       <c r="O1505" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="V1505" t="s">
         <v>9</v>
@@ -60516,7 +60513,7 @@
         <v>534</v>
       </c>
       <c r="AB1505" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1506">
@@ -60790,13 +60787,13 @@
         <v>237</v>
       </c>
       <c r="K1513" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="N1513" t="s">
         <v>1460</v>
       </c>
       <c r="O1513" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="V1513" t="s">
         <v>15</v>
@@ -60805,7 +60802,7 @@
         <v>458</v>
       </c>
       <c r="AB1513" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1514">
@@ -60884,7 +60881,7 @@
         <v>370</v>
       </c>
       <c r="AB1515" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1516">
@@ -61301,13 +61298,13 @@
         <v>626</v>
       </c>
       <c r="K1527" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="N1527" t="s">
         <v>605</v>
       </c>
       <c r="O1527" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="V1527" t="s">
         <v>9</v>
@@ -61316,7 +61313,7 @@
         <v>65</v>
       </c>
       <c r="AB1527" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1528">
@@ -61485,13 +61482,13 @@
         <v>1000</v>
       </c>
       <c r="K1532" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="N1532" t="s">
         <v>1560</v>
       </c>
       <c r="O1532" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="V1532" t="s">
         <v>9</v>
@@ -61500,7 +61497,7 @@
         <v>49</v>
       </c>
       <c r="AB1532" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1533">
@@ -61634,13 +61631,13 @@
         <v>1250</v>
       </c>
       <c r="K1536" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="N1536" t="s">
         <v>981</v>
       </c>
       <c r="O1536" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="V1536" t="s">
         <v>9</v>
@@ -61649,7 +61646,7 @@
         <v>316</v>
       </c>
       <c r="AB1536" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1537">
@@ -61818,13 +61815,13 @@
         <v>383</v>
       </c>
       <c r="K1541" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="N1541" t="s">
         <v>1563</v>
       </c>
       <c r="O1541" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="V1541" t="s">
         <v>9</v>
@@ -61833,7 +61830,7 @@
         <v>176</v>
       </c>
       <c r="AB1541" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1542">
@@ -61914,7 +61911,7 @@
         <v>1</v>
       </c>
       <c r="C1544" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="D1544" t="s">
         <v>3</v>
@@ -61947,7 +61944,7 @@
         <v>428</v>
       </c>
       <c r="AB1544" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1545">
@@ -62878,7 +62875,7 @@
         <v>860</v>
       </c>
       <c r="O1570" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="V1570" t="s">
         <v>9</v>
@@ -62887,7 +62884,7 @@
         <v>270</v>
       </c>
       <c r="AB1570" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1571">
@@ -63091,13 +63088,13 @@
         <v>183</v>
       </c>
       <c r="K1576" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="N1576" t="s">
         <v>678</v>
       </c>
       <c r="O1576" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="V1576" t="s">
         <v>9</v>
@@ -63106,7 +63103,7 @@
         <v>49</v>
       </c>
       <c r="AB1576" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1577">
@@ -63401,7 +63398,7 @@
         <v>246</v>
       </c>
       <c r="AB1584" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1585">
@@ -63535,13 +63532,13 @@
         <v>762</v>
       </c>
       <c r="K1588" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="N1588" t="s">
         <v>1265</v>
       </c>
       <c r="O1588" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="V1588" t="s">
         <v>9</v>
@@ -63550,7 +63547,7 @@
         <v>662</v>
       </c>
       <c r="AB1588" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1589">
@@ -63827,13 +63824,13 @@
         <v>1006</v>
       </c>
       <c r="K1596" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="N1596" t="s">
         <v>356</v>
       </c>
       <c r="O1596" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="V1596" t="s">
         <v>9</v>
@@ -63842,7 +63839,7 @@
         <v>628</v>
       </c>
       <c r="AB1596" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1597">
@@ -64064,7 +64061,7 @@
         <v>259</v>
       </c>
       <c r="AB1602" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1603">
@@ -64201,13 +64198,13 @@
         <v>1298</v>
       </c>
       <c r="K1606" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="N1606" t="s">
         <v>315</v>
       </c>
       <c r="O1606" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="V1606" t="s">
         <v>9</v>
@@ -64216,7 +64213,7 @@
         <v>69</v>
       </c>
       <c r="AB1606" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1607">
@@ -64621,7 +64618,7 @@
         <v>1</v>
       </c>
       <c r="C1618" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="D1618" t="s">
         <v>3</v>
@@ -64639,13 +64636,13 @@
         <v>748</v>
       </c>
       <c r="K1618" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="N1618" t="s">
         <v>417</v>
       </c>
       <c r="O1618" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="V1618" t="s">
         <v>9</v>
@@ -64654,7 +64651,7 @@
         <v>26</v>
       </c>
       <c r="AB1618" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1619">
@@ -64978,7 +64975,7 @@
         <v>119</v>
       </c>
       <c r="AB1627" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1628">
@@ -65022,7 +65019,7 @@
         <v>109</v>
       </c>
       <c r="AB1628" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1629">
@@ -65597,7 +65594,7 @@
         <v>1129</v>
       </c>
       <c r="AB1644" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1645">
@@ -65976,13 +65973,13 @@
         <v>1435</v>
       </c>
       <c r="K1655" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="N1655" t="s">
         <v>1249</v>
       </c>
       <c r="O1655" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="V1655" t="s">
         <v>9</v>
@@ -65991,7 +65988,7 @@
         <v>60</v>
       </c>
       <c r="AB1655" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1656">
@@ -66055,13 +66052,13 @@
         <v>1146</v>
       </c>
       <c r="K1657" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="N1657" t="s">
         <v>1299</v>
       </c>
       <c r="O1657" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="V1657" t="s">
         <v>9</v>
@@ -66070,7 +66067,7 @@
         <v>673</v>
       </c>
       <c r="AB1657" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1658">
@@ -66738,13 +66735,13 @@
         <v>1104</v>
       </c>
       <c r="K1676" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="N1676" t="s">
         <v>842</v>
       </c>
       <c r="O1676" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="V1676" t="s">
         <v>9</v>
@@ -66753,7 +66750,7 @@
         <v>673</v>
       </c>
       <c r="AB1676" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1677">
@@ -67254,7 +67251,7 @@
         <v>1</v>
       </c>
       <c r="C1691" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="D1691" t="s">
         <v>3</v>
@@ -67287,7 +67284,7 @@
         <v>561</v>
       </c>
       <c r="AB1691" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1692">
@@ -67675,13 +67672,13 @@
         <v>744</v>
       </c>
       <c r="K1702" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="N1702" t="s">
         <v>364</v>
       </c>
       <c r="O1702" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="V1702" t="s">
         <v>9</v>
@@ -67690,7 +67687,7 @@
         <v>688</v>
       </c>
       <c r="AB1702" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1703">
@@ -67935,13 +67932,13 @@
         <v>335</v>
       </c>
       <c r="K1709" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="N1709" t="s">
         <v>609</v>
       </c>
       <c r="O1709" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="V1709" t="s">
         <v>9</v>
@@ -67950,7 +67947,7 @@
         <v>813</v>
       </c>
       <c r="AB1709" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1710">
@@ -68206,7 +68203,7 @@
         <v>1</v>
       </c>
       <c r="C1717" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="D1717" t="s">
         <v>3</v>
@@ -68239,7 +68236,7 @@
         <v>55</v>
       </c>
       <c r="AB1717" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1718">
@@ -68303,13 +68300,13 @@
         <v>1497</v>
       </c>
       <c r="K1719" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="N1719" t="s">
         <v>1585</v>
       </c>
       <c r="O1719" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="V1719" t="s">
         <v>105</v>
@@ -68318,7 +68315,7 @@
         <v>731</v>
       </c>
       <c r="AB1719" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1720">
@@ -68417,13 +68414,13 @@
         <v>312</v>
       </c>
       <c r="K1722" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="N1722" t="s">
         <v>1386</v>
       </c>
       <c r="O1722" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="V1722" t="s">
         <v>9</v>
@@ -68432,7 +68429,7 @@
         <v>805</v>
       </c>
       <c r="AB1722" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1723">
@@ -68706,13 +68703,13 @@
         <v>1099</v>
       </c>
       <c r="K1730" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="N1730" t="s">
         <v>923</v>
       </c>
       <c r="O1730" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="V1730" t="s">
         <v>15</v>
@@ -68721,7 +68718,7 @@
         <v>741</v>
       </c>
       <c r="AB1730" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1731">
@@ -69263,7 +69260,7 @@
         <v>1</v>
       </c>
       <c r="C1746" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="D1746" t="s">
         <v>3</v>
@@ -69296,7 +69293,7 @@
         <v>72</v>
       </c>
       <c r="AB1746" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1747">
@@ -69555,7 +69552,7 @@
         <v>1</v>
       </c>
       <c r="C1754" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="D1754" t="s">
         <v>3</v>
@@ -69573,13 +69570,13 @@
         <v>769</v>
       </c>
       <c r="K1754" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="N1754" t="s">
         <v>1517</v>
       </c>
       <c r="O1754" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="V1754" t="s">
         <v>9</v>
@@ -69588,7 +69585,7 @@
         <v>306</v>
       </c>
       <c r="AB1754" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1755">
@@ -69722,13 +69719,13 @@
         <v>498</v>
       </c>
       <c r="K1758" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="N1758" t="s">
         <v>884</v>
       </c>
       <c r="O1758" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="V1758" t="s">
         <v>9</v>
@@ -69737,7 +69734,7 @@
         <v>69</v>
       </c>
       <c r="AB1758" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1759">
@@ -69851,7 +69848,7 @@
         <v>471</v>
       </c>
       <c r="AB1761" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1762">
@@ -70178,7 +70175,7 @@
         <v>242</v>
       </c>
       <c r="AB1770" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1771">
@@ -70665,13 +70662,13 @@
         <v>753</v>
       </c>
       <c r="K1784" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="N1784" t="s">
         <v>374</v>
       </c>
       <c r="O1784" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="V1784" t="s">
         <v>9</v>
@@ -70680,7 +70677,7 @@
         <v>616</v>
       </c>
       <c r="AB1784" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1785">
@@ -70779,13 +70776,13 @@
         <v>965</v>
       </c>
       <c r="K1787" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="N1787" t="s">
         <v>1298</v>
       </c>
       <c r="O1787" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="V1787" t="s">
         <v>9</v>
@@ -70794,7 +70791,7 @@
         <v>69</v>
       </c>
       <c r="AB1787" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1788">
@@ -70893,13 +70890,13 @@
         <v>1068</v>
       </c>
       <c r="K1790" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="N1790" t="s">
         <v>744</v>
       </c>
       <c r="O1790" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="V1790" t="s">
         <v>195</v>
@@ -70908,7 +70905,7 @@
         <v>446</v>
       </c>
       <c r="AB1790" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1791">
@@ -71010,13 +71007,13 @@
         <v>598</v>
       </c>
       <c r="K1793" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="N1793" t="s">
         <v>356</v>
       </c>
       <c r="O1793" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="V1793" t="s">
         <v>9</v>
@@ -71025,7 +71022,7 @@
         <v>805</v>
       </c>
       <c r="AB1793" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1794">
@@ -71299,13 +71296,13 @@
         <v>1097</v>
       </c>
       <c r="K1801" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="N1801" t="s">
         <v>965</v>
       </c>
       <c r="O1801" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="V1801" t="s">
         <v>9</v>
@@ -71314,7 +71311,7 @@
         <v>534</v>
       </c>
       <c r="AB1801" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1802">
@@ -71393,7 +71390,7 @@
         <v>188</v>
       </c>
       <c r="AB1803" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1804">
@@ -71600,13 +71597,13 @@
         <v>433</v>
       </c>
       <c r="K1809" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="N1809" t="s">
         <v>237</v>
       </c>
       <c r="O1809" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="V1809" t="s">
         <v>9</v>
@@ -71615,7 +71612,7 @@
         <v>799</v>
       </c>
       <c r="AB1809" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1810">
@@ -71787,13 +71784,13 @@
         <v>433</v>
       </c>
       <c r="K1814" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="N1814" t="s">
         <v>841</v>
       </c>
       <c r="O1814" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="V1814" t="s">
         <v>9</v>
@@ -71802,7 +71799,7 @@
         <v>632</v>
       </c>
       <c r="AB1814" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1815">
@@ -72397,13 +72394,13 @@
         <v>284</v>
       </c>
       <c r="K1831" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="N1831" t="s">
         <v>807</v>
       </c>
       <c r="O1831" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="V1831" t="s">
         <v>15</v>
@@ -72412,7 +72409,7 @@
         <v>632</v>
       </c>
       <c r="AB1831" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1832">
@@ -72423,7 +72420,7 @@
         <v>1</v>
       </c>
       <c r="C1832" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="D1832" t="s">
         <v>3</v>
@@ -72441,13 +72438,13 @@
         <v>1154</v>
       </c>
       <c r="K1832" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="N1832" t="s">
         <v>417</v>
       </c>
       <c r="O1832" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="V1832" t="s">
         <v>9</v>
@@ -72456,7 +72453,7 @@
         <v>173</v>
       </c>
       <c r="AB1832" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1833">
@@ -72526,7 +72523,7 @@
         <v>9</v>
       </c>
       <c r="X1834" t="s">
-        <v>1637</v>
+        <v>326</v>
       </c>
     </row>
     <row r="1835">
@@ -72698,13 +72695,13 @@
         <v>356</v>
       </c>
       <c r="K1839" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="N1839" t="s">
         <v>875</v>
       </c>
       <c r="O1839" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="V1839" t="s">
         <v>9</v>
@@ -72713,7 +72710,7 @@
         <v>1258</v>
       </c>
       <c r="AB1839" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1840">
@@ -72932,7 +72929,7 @@
         <v>891</v>
       </c>
       <c r="AB1845" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1846">
@@ -73209,13 +73206,13 @@
         <v>347</v>
       </c>
       <c r="K1853" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="N1853" t="s">
         <v>501</v>
       </c>
       <c r="O1853" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="V1853" t="s">
         <v>9</v>
@@ -73224,7 +73221,7 @@
         <v>1258</v>
       </c>
       <c r="AB1853" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1854">
@@ -73414,7 +73411,7 @@
         <v>115</v>
       </c>
       <c r="AB1858" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1859">
@@ -73557,7 +73554,7 @@
         <v>330</v>
       </c>
       <c r="O1862" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="V1862" t="s">
         <v>54</v>
@@ -73566,7 +73563,7 @@
         <v>481</v>
       </c>
       <c r="AB1862" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1863">
@@ -73980,13 +73977,13 @@
         <v>678</v>
       </c>
       <c r="K1874" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="N1874" t="s">
         <v>1413</v>
       </c>
       <c r="O1874" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="V1874" t="s">
         <v>9</v>
@@ -73995,7 +73992,7 @@
         <v>176</v>
       </c>
       <c r="AB1874" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1875">
@@ -74293,7 +74290,7 @@
         <v>654</v>
       </c>
       <c r="AB1882" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1883">
@@ -74762,7 +74759,7 @@
         <v>1</v>
       </c>
       <c r="C1896" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="D1896" t="s">
         <v>3</v>
@@ -74780,13 +74777,13 @@
         <v>1275</v>
       </c>
       <c r="K1896" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="N1896" t="s">
         <v>1243</v>
       </c>
       <c r="O1896" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="V1896" t="s">
         <v>9</v>
@@ -74795,7 +74792,7 @@
         <v>514</v>
       </c>
       <c r="AB1896" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1897">
@@ -75180,7 +75177,7 @@
         <v>9</v>
       </c>
       <c r="X1907" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="1908">
@@ -75544,7 +75541,7 @@
         <v>1</v>
       </c>
       <c r="C1918" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="D1918" t="s">
         <v>3</v>
@@ -75577,7 +75574,7 @@
         <v>1023</v>
       </c>
       <c r="AB1918" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1919">
@@ -75726,7 +75723,7 @@
         <v>747</v>
       </c>
       <c r="AB1922" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1923">
@@ -75933,13 +75930,13 @@
         <v>651</v>
       </c>
       <c r="K1928" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="N1928" t="s">
         <v>627</v>
       </c>
       <c r="O1928" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="V1928" t="s">
         <v>9</v>
@@ -75948,7 +75945,7 @@
         <v>874</v>
       </c>
       <c r="AB1928" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1929">
@@ -76134,7 +76131,7 @@
         <v>1</v>
       </c>
       <c r="C1934" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="D1934" t="s">
         <v>3</v>
@@ -76152,13 +76149,13 @@
         <v>416</v>
       </c>
       <c r="K1934" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="N1934" t="s">
         <v>417</v>
       </c>
       <c r="O1934" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="V1934" t="s">
         <v>9</v>
@@ -76167,7 +76164,7 @@
         <v>662</v>
       </c>
       <c r="AB1934" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1935">
@@ -76371,13 +76368,13 @@
         <v>1116</v>
       </c>
       <c r="K1940" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="N1940" t="s">
         <v>237</v>
       </c>
       <c r="O1940" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="V1940" t="s">
         <v>9</v>
@@ -76386,7 +76383,7 @@
         <v>843</v>
       </c>
       <c r="AB1940" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1941">
@@ -76596,7 +76593,7 @@
         <v>364</v>
       </c>
       <c r="O1946" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="V1946" t="s">
         <v>9</v>
@@ -76605,7 +76602,7 @@
         <v>370</v>
       </c>
       <c r="AB1946" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1947">
@@ -76824,7 +76821,7 @@
         <v>76</v>
       </c>
       <c r="AB1952" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1953">
@@ -77565,13 +77562,13 @@
         <v>1470</v>
       </c>
       <c r="K1973" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="N1973" t="s">
         <v>364</v>
       </c>
       <c r="O1973" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="V1973" t="s">
         <v>9</v>
@@ -77580,7 +77577,7 @@
         <v>799</v>
       </c>
       <c r="AB1973" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1974">
@@ -78461,7 +78458,7 @@
         <v>1561</v>
       </c>
       <c r="O1998" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="V1998" t="s">
         <v>9</v>
@@ -78470,7 +78467,7 @@
         <v>36</v>
       </c>
       <c r="AB1998" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1999">
@@ -78797,7 +78794,7 @@
         <v>246</v>
       </c>
       <c r="AB2007" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="2008">
@@ -79150,13 +79147,13 @@
         <v>504</v>
       </c>
       <c r="K2017" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="N2017" t="s">
         <v>807</v>
       </c>
       <c r="O2017" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="V2017" t="s">
         <v>9</v>
@@ -79165,7 +79162,7 @@
         <v>523</v>
       </c>
       <c r="AB2017" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="2018">
@@ -79229,13 +79226,13 @@
         <v>1008</v>
       </c>
       <c r="K2019" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="N2019" t="s">
         <v>1108</v>
       </c>
       <c r="O2019" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="V2019" t="s">
         <v>9</v>
@@ -79244,7 +79241,7 @@
         <v>165</v>
       </c>
       <c r="AB2019" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="2020">
@@ -79536,7 +79533,7 @@
         <v>644</v>
       </c>
       <c r="AB2027" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="2028">
@@ -79819,7 +79816,7 @@
         <v>626</v>
       </c>
       <c r="O2035" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="V2035" t="s">
         <v>9</v>
@@ -79828,7 +79825,7 @@
         <v>450</v>
       </c>
       <c r="AB2035" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="2036">
@@ -79971,7 +79968,7 @@
         <v>1459</v>
       </c>
       <c r="O2039" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="V2039" t="s">
         <v>105</v>
@@ -79980,7 +79977,7 @@
         <v>891</v>
       </c>
       <c r="AB2039" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="2040">
@@ -80540,13 +80537,13 @@
         <v>670</v>
       </c>
       <c r="K2055" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="N2055" t="s">
         <v>530</v>
       </c>
       <c r="O2055" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="V2055" t="s">
         <v>9</v>
@@ -80555,7 +80552,7 @@
         <v>306</v>
       </c>
       <c r="AB2055" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="2056">
@@ -80724,13 +80721,13 @@
         <v>627</v>
       </c>
       <c r="K2060" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="N2060" t="s">
         <v>1006</v>
       </c>
       <c r="O2060" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="V2060" t="s">
         <v>9</v>
@@ -80739,7 +80736,7 @@
         <v>616</v>
       </c>
       <c r="AB2060" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="2061">
@@ -81208,7 +81205,7 @@
         <v>1</v>
       </c>
       <c r="C2074" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="D2074" t="s">
         <v>3</v>
@@ -81241,7 +81238,7 @@
         <v>481</v>
       </c>
       <c r="AB2074" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="2075">
@@ -81393,7 +81390,7 @@
         <v>127</v>
       </c>
       <c r="AB2078" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="2079">
@@ -81615,7 +81612,7 @@
         <v>654</v>
       </c>
       <c r="AB2084" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="2085">
@@ -81863,7 +81860,7 @@
         <v>9</v>
       </c>
       <c r="X2091" t="s">
-        <v>1637</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2092">
@@ -82773,13 +82770,13 @@
         <v>364</v>
       </c>
       <c r="K2117" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="N2117" t="s">
         <v>1386</v>
       </c>
       <c r="O2117" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="V2117" t="s">
         <v>9</v>
@@ -82788,7 +82785,7 @@
         <v>813</v>
       </c>
       <c r="AB2117" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="2118">
@@ -83254,7 +83251,7 @@
         <v>1</v>
       </c>
       <c r="C2131" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="D2131" t="s">
         <v>3</v>
@@ -83287,7 +83284,7 @@
         <v>36</v>
       </c>
       <c r="AB2131" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="2132">
@@ -84361,7 +84358,7 @@
         <v>644</v>
       </c>
       <c r="AB2161" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="2162">
@@ -84425,13 +84422,13 @@
         <v>497</v>
       </c>
       <c r="K2163" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="N2163" t="s">
         <v>842</v>
       </c>
       <c r="O2163" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="V2163" t="s">
         <v>9</v>
@@ -84440,7 +84437,7 @@
         <v>342</v>
       </c>
       <c r="AB2163" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="2164">
@@ -84682,13 +84679,13 @@
         <v>238</v>
       </c>
       <c r="K2170" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="N2170" t="s">
         <v>1056</v>
       </c>
       <c r="O2170" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="V2170" t="s">
         <v>9</v>
@@ -84697,7 +84694,7 @@
         <v>434</v>
       </c>
       <c r="AB2170" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="2171">
@@ -84846,7 +84843,7 @@
         <v>362</v>
       </c>
       <c r="AB2174" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="2175">
@@ -85103,7 +85100,7 @@
         <v>411</v>
       </c>
       <c r="AB2181" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="2182">
@@ -85351,13 +85348,13 @@
         <v>364</v>
       </c>
       <c r="K2188" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="N2188" t="s">
         <v>652</v>
       </c>
       <c r="O2188" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="V2188" t="s">
         <v>9</v>
@@ -85366,7 +85363,7 @@
         <v>1023</v>
       </c>
       <c r="AB2188" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="2189">
@@ -86002,13 +85999,13 @@
         <v>1104</v>
       </c>
       <c r="K2206" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="N2206" t="s">
         <v>208</v>
       </c>
       <c r="O2206" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="V2206" t="s">
         <v>9</v>
@@ -86017,7 +86014,7 @@
         <v>813</v>
       </c>
       <c r="AB2206" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="2207">
@@ -86329,13 +86326,13 @@
         <v>1471</v>
       </c>
       <c r="K2215" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="N2215" t="s">
         <v>627</v>
       </c>
       <c r="O2215" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="V2215" t="s">
         <v>9</v>
@@ -86344,7 +86341,7 @@
         <v>817</v>
       </c>
       <c r="AB2215" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="2216">
@@ -86846,7 +86843,7 @@
         <v>703</v>
       </c>
       <c r="AB2229" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="2230">
@@ -87155,13 +87152,13 @@
         <v>1105</v>
       </c>
       <c r="K2238" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="N2238" t="s">
         <v>977</v>
       </c>
       <c r="O2238" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="V2238" t="s">
         <v>9</v>
@@ -87170,7 +87167,7 @@
         <v>462</v>
       </c>
       <c r="AB2238" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="2239">
@@ -87514,13 +87511,13 @@
         <v>1560</v>
       </c>
       <c r="K2248" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="N2248" t="s">
         <v>1536</v>
       </c>
       <c r="O2248" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="V2248" t="s">
         <v>9</v>
@@ -87529,7 +87526,7 @@
         <v>342</v>
       </c>
       <c r="AB2248" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="2249">
@@ -87826,7 +87823,7 @@
         <v>1</v>
       </c>
       <c r="C2257" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="D2257" t="s">
         <v>3</v>
@@ -87859,7 +87856,7 @@
         <v>196</v>
       </c>
       <c r="AB2257" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="2258">
@@ -88168,13 +88165,13 @@
         <v>1098</v>
       </c>
       <c r="K2266" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="N2266" t="s">
         <v>1106</v>
       </c>
       <c r="O2266" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="V2266" t="s">
         <v>9</v>
@@ -88183,7 +88180,7 @@
         <v>65</v>
       </c>
       <c r="AB2266" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
   </sheetData>
